--- a/5_タイプ検証/timeline_type_分析後.xlsx
+++ b/5_タイプ検証/timeline_type_分析後.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikar\Desktop\2025_radio\5_タイプ検証\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF5D83-FD2D-44D0-88E9-19F0D35817F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF63EEF-3190-4975-8377-D4F64BEBFCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DA1E4A-05E4-4914-AECC-75F811F3F6E6}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -2445,26 +2445,6 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103">
-        <v>2024</v>
-      </c>
-      <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>53</v>
-      </c>
-      <c r="D103">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>8</v>
-      </c>
-      <c r="F103">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
